--- a/实验2：软件需求评审/评审意见表模版.xlsx
+++ b/实验2：软件需求评审/评审意见表模版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mz/Desktop/软工实验/20_F/实验2：软件需求评审/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23485D90-766C-5D41-811E-9A975023D53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611A6F5-D9C9-D04E-80B3-91F3B6090FAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="2640" windowWidth="27020" windowHeight="13840" xr2:uid="{C85065A9-9B9F-9648-AD84-82B9AD8B132D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>评审意见表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重程度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -211,6 +215,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -220,26 +245,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -555,301 +580,330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DBF999-13E8-3248-A7B3-1F60868665C4}">
-  <dimension ref="B2:I19"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="21">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:11" ht="21">
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:9">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="F4" s="3"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="F5" s="3"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="F6" s="3"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="1">
         <v>2</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="1">
         <v>3</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="B11" s="1">
         <v>4</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="B12" s="1">
         <v>5</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="1">
         <v>6</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="2:11">
       <c r="B14" s="1">
         <v>7</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="2:11">
       <c r="B15" s="1">
         <v>8</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="2:11">
       <c r="B16" s="1">
         <v>9</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="E16" s="8"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="1">
         <v>10</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="1">
         <v>11</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="1">
         <v>12</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H19:I19"/>
+  <mergeCells count="34">
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="H16:I16"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
